--- a/map_4.xlsx
+++ b/map_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS_project\souless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A294B0EE-E5B1-4872-A043-20994DC38257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79540D5-A8D3-4049-B177-6663E431CB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,12 +73,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -92,13 +86,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +376,7 @@
   <dimension ref="A1:AP42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR18" sqref="AR18"/>
+      <selection activeCell="AK27" sqref="AJ18:AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1642,7 @@
       <c r="AI10" s="2">
         <v>0</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="5">
         <v>0</v>
       </c>
       <c r="AK10" s="2">
@@ -2229,8 +2222,8 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="5">
-        <v>4</v>
+      <c r="P15" s="2">
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2592,8 +2585,8 @@
       <c r="H18" s="2">
         <v>0</v>
       </c>
-      <c r="I18" s="5">
-        <v>4</v>
+      <c r="I18" s="2">
+        <v>0</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2929,8 +2922,8 @@
       <c r="AI20" s="2">
         <v>0</v>
       </c>
-      <c r="AJ20" s="5">
-        <v>4</v>
+      <c r="AJ20" s="2">
+        <v>0</v>
       </c>
       <c r="AK20" s="2">
         <v>0</v>
@@ -3396,8 +3389,8 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="5">
-        <v>4</v>
+      <c r="U24" s="2">
+        <v>0</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -3872,8 +3865,8 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="5">
-        <v>4</v>
+      <c r="I28" s="2">
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -4566,8 +4559,8 @@
       <c r="Z33" s="2">
         <v>0</v>
       </c>
-      <c r="AA33" s="5">
-        <v>4</v>
+      <c r="AA33" s="2">
+        <v>0</v>
       </c>
       <c r="AB33" s="2">
         <v>0</v>
@@ -4590,8 +4583,8 @@
       <c r="AH33" s="2">
         <v>0</v>
       </c>
-      <c r="AI33" s="5">
-        <v>4</v>
+      <c r="AI33" s="2">
+        <v>0</v>
       </c>
       <c r="AJ33" s="2">
         <v>0</v>
